--- a/biology/Botanique/Howard_Scott_Gentry/Howard_Scott_Gentry.xlsx
+++ b/biology/Botanique/Howard_Scott_Gentry/Howard_Scott_Gentry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Howard Scott Gentry (né le 10 décembre 1903 à Temecula (Californie), mort le 1er avril 1993 (à 89 ans) à Tucson) est un botaniste américain spécialiste des agaves.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gentry travaille pour l'United States Department of Agriculture (l'équivalent du ministère de l'agriculture) et, à partir de 1971, il est chercheur au Desert Botanical Garden de Phoenix (Arizona). L'Huntington Botanical Gardens de San Marino en Californie assure la conservation de nombreuses espèces qu'il a découvertes.
 Son étude de 1942 sur les plantes de la région de Río Mayo au nord-ouest de Mexico est devenue une référence.
@@ -544,7 +558,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Río Mayo Plants of Sonora-Chihuahua (1942).
 The Agave Family of Sonora (1972).
